--- a/AAMC/FL_2_Review.xlsx
+++ b/AAMC/FL_2_Review.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Melton\OneDrive\Desktop\MCAT\AAMC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0355545-85C7-4404-AFED-C5DF1F0C1EB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0378434-FB77-41F2-AF03-DCCD162E98DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ChemPhys" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="74">
   <si>
     <t>Flagged</t>
   </si>
@@ -276,6 +276,45 @@
   </si>
   <si>
     <t>Formal operational. Adolescence through adulthood</t>
+  </si>
+  <si>
+    <t>Thalamus: relaying sensory and motor signals, as well as regulation of consciousness and alertness</t>
+  </si>
+  <si>
+    <t>Medulla Oblongata: transmitting signals between the spinal cord and the higher parts of the brain and in controlling autonomic activities, such as heartbeat and respiration.</t>
+  </si>
+  <si>
+    <t>Amygdala: primary role in the processing of memory, decision making, and emotional responses (including fear, anxiety, and aggression), the amygdalae are considered part of the limbic system</t>
+  </si>
+  <si>
+    <t>erickson's</t>
+  </si>
+  <si>
+    <t>freud's</t>
+  </si>
+  <si>
+    <t>group norm of critical evaluation and dissent, don't use passage info? Maybe too extreme</t>
+  </si>
+  <si>
+    <t>ye idk how I forgot</t>
+  </si>
+  <si>
+    <t>emotional intelligence = delay gratification</t>
+  </si>
+  <si>
+    <t>escape learning</t>
+  </si>
+  <si>
+    <t>acquistion</t>
+  </si>
+  <si>
+    <t>manifest + latent functions</t>
+  </si>
+  <si>
+    <t>Hawthorne effect describes changes in research participants as a result of their awareness that they are being observed</t>
+  </si>
+  <si>
+    <t>Thomas theorem states that if an individual believes something to be real, then it is real in its consequences</t>
   </si>
 </sst>
 </file>
@@ -1317,8 +1356,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF0BA617-6DBC-4E18-A9B2-A134A1B57BA6}">
   <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1367,7 +1406,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A4" s="7">
         <v>10</v>
       </c>
@@ -1377,7 +1416,9 @@
       <c r="F4">
         <v>40</v>
       </c>
-      <c r="G4" s="1"/>
+      <c r="G4" s="1" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="5" spans="1:7" ht="81.5" x14ac:dyDescent="0.35">
       <c r="A5" s="7">
@@ -1395,6 +1436,9 @@
       <c r="F5">
         <v>44</v>
       </c>
+      <c r="G5" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" s="7">
@@ -1406,6 +1450,9 @@
       <c r="F6">
         <v>45</v>
       </c>
+      <c r="G6" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" s="7">
@@ -1491,42 +1538,72 @@
         <v>33</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" ht="116" x14ac:dyDescent="0.35">
       <c r="A17" s="7">
         <v>34</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B17" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" s="7">
         <v>37</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B18" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" s="7">
         <v>38</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B19" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" s="7">
         <v>46</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B20" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" s="7">
         <v>49</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B21" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" s="7">
         <v>54</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B22" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="51.5" x14ac:dyDescent="0.35">
       <c r="A23" s="7">
         <v>58</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B23" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24" s="7">
         <v>59</v>
       </c>

--- a/AAMC/FL_2_Review.xlsx
+++ b/AAMC/FL_2_Review.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Melton\OneDrive\Desktop\MCAT\AAMC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0378434-FB77-41F2-AF03-DCCD162E98DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AEE6F31-6843-427A-B0CB-295E86797FD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ChemPhys" sheetId="1" r:id="rId1"/>
@@ -968,8 +968,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6500457-BB29-4527-B1DF-9BB7B112ABAC}">
   <dimension ref="A1:C20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1356,8 +1356,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF0BA617-6DBC-4E18-A9B2-A134A1B57BA6}">
   <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B23" sqref="B23:C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
